--- a/E5 Programmierung/Messaufgabe1.xlsx
+++ b/E5 Programmierung/Messaufgabe1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muell\Documents\7_Studium\4_Viertes_Semester\B04_Physik_Grundpraktikum\E5 Gleichrichterschaltungen\E5 Programmierung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4ccb2a2ecf688a24/Dokumente/1 UNI/3. Sem/GP Physik/Grundpraktikum/E5 Programmierung/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A70358-3F49-4AFB-8DA9-A682A93F55CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{42A70358-3F49-4AFB-8DA9-A682A93F55CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D172F376-388D-47B5-8851-A99C7A60C9A7}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{AFC82756-8951-493E-9E45-B29B2E76D7A6}"/>
+    <workbookView xWindow="6495" yWindow="6360" windowWidth="21600" windowHeight="11835" xr2:uid="{AFC82756-8951-493E-9E45-B29B2E76D7A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Messaufgabe1" sheetId="1" r:id="rId1"/>
@@ -632,9 +632,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 – 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -672,7 +672,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 – 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -778,7 +778,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 – 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -920,7 +920,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -931,20 +931,22 @@
   <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18:I23"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="12" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="10" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -970,7 +972,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1020,7 +1022,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5.8000000000000003E-2</v>
       </c>
@@ -1078,7 +1080,7 @@
         <v>3.2015621187164243</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.9</v>
       </c>
@@ -1104,19 +1106,19 @@
         <v>295</v>
       </c>
       <c r="I5">
-        <f t="shared" ref="I5:I23" si="1">SQRT(0.002^2+(A5*0.01+0.001)^2)/1000</f>
+        <f t="shared" ref="I5:I10" si="1">SQRT(0.002^2+(A5*0.01+0.001)^2)/1000</f>
         <v>1.0198039027185573E-5</v>
       </c>
       <c r="J5">
-        <f t="shared" ref="J5:J23" si="2">SQRT(0.002^2+(C5*0.01+0.001)^2)/1000</f>
+        <f t="shared" ref="J5:J13" si="2">SQRT(0.002^2+(C5*0.01+0.001)^2)/1000</f>
         <v>3.0178800506315687E-6</v>
       </c>
       <c r="K5">
-        <f t="shared" ref="K5:K23" si="3">SQRT(0.002^2+(E5*0.01+0.001)^2)/1000</f>
+        <f t="shared" ref="K5:K9" si="3">SQRT(0.002^2+(E5*0.01+0.001)^2)/1000</f>
         <v>2.7724357521861529E-6</v>
       </c>
       <c r="L5">
-        <f t="shared" ref="L5:L23" si="4">SQRT(0.002^2+(G5*0.01+0.001)^2)/1000</f>
+        <f t="shared" ref="L5:L8" si="4">SQRT(0.002^2+(G5*0.01+0.001)^2)/1000</f>
         <v>3.0029319006597537E-6</v>
       </c>
       <c r="M5">
@@ -1136,7 +1138,7 @@
         <v>3.2015621187164243</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.247</v>
       </c>
@@ -1194,7 +1196,7 @@
         <v>3.2015621187164243</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0.13</v>
       </c>
@@ -1252,7 +1254,7 @@
         <v>3.2015621187164243</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0.307</v>
       </c>
@@ -1310,7 +1312,7 @@
         <v>3.2015621187164243</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0.40100000000000002</v>
       </c>
@@ -1368,7 +1370,7 @@
         <v>3.2015621187164243</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1.123</v>
       </c>
@@ -1426,7 +1428,7 @@
         <v>3.2015621187164243</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2.2599999999999998</v>
       </c>
@@ -1484,7 +1486,7 @@
         <v>3.2015621187164243</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>3.62</v>
       </c>
@@ -1542,7 +1544,7 @@
         <v>3.2015621187164243</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>5.2</v>
       </c>
@@ -1600,7 +1602,7 @@
         <v>3.2015621187164243</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>6.7</v>
       </c>
@@ -1658,7 +1660,7 @@
         <v>3.2015621187164243</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>9.31</v>
       </c>
@@ -1716,7 +1718,7 @@
         <v>3.2015621187164243</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15.13</v>
       </c>
@@ -1774,7 +1776,7 @@
         <v>3.2015621187164243</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>19.579999999999998</v>
       </c>
@@ -1832,7 +1834,7 @@
         <v>3.2015621187164243</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>32.1</v>
       </c>
@@ -1890,7 +1892,7 @@
         <v>3.2015621187164243</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>37.299999999999997</v>
       </c>
@@ -1948,7 +1950,7 @@
         <v>3.2015621187164243</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>34.299999999999997</v>
       </c>
@@ -2006,7 +2008,7 @@
         <v>3.2015621187164243</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>40.200000000000003</v>
       </c>
@@ -2064,7 +2066,7 @@
         <v>3.2015621187164243</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>44</v>
       </c>
@@ -2122,7 +2124,7 @@
         <v>3.2015621187164243</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>48.9</v>
       </c>
